--- a/ada.xlsx
+++ b/ada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2118"/>
+  <dimension ref="A1:L2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80910,34 +80910,9078 @@
         <v>395</v>
       </c>
       <c r="C2118" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D2118" t="n">
         <v>388</v>
       </c>
       <c r="E2118" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F2118" t="n">
-        <v>15072146.48231891</v>
+        <v>27696150.90317764</v>
       </c>
       <c r="G2118" t="n">
-        <v>5897185153.025908</v>
+        <v>10896883341.13667</v>
       </c>
       <c r="H2118" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I2118" t="n">
         <v>400</v>
       </c>
       <c r="J2118" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K2118" t="n">
-        <v>468.4056058743308</v>
+        <v>463.7215498155875</v>
       </c>
       <c r="L2118" t="n">
-        <v>43.89991434643468</v>
+        <v>44.46091520297033</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="2" t="n">
+        <v>45134.375</v>
+      </c>
+      <c r="B2119" t="n">
+        <v>396</v>
+      </c>
+      <c r="C2119" t="n">
+        <v>405</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>395</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>399</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>26418603.32567503</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>10577909890.86668</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>403</v>
+      </c>
+      <c r="J2119" t="n">
+        <v>0.9900744416873449</v>
+      </c>
+      <c r="K2119" t="n">
+        <v>459.1188545320582</v>
+      </c>
+      <c r="L2119" t="n">
+        <v>45.01217162775475</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="2" t="n">
+        <v>45135.375</v>
+      </c>
+      <c r="B2120" t="n">
+        <v>398</v>
+      </c>
+      <c r="C2120" t="n">
+        <v>406</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>397</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>401</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>18802970.53567085</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>7542044330.992157</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>403</v>
+      </c>
+      <c r="J2120" t="n">
+        <v>0.9950372208436724</v>
+      </c>
+      <c r="K2120" t="n">
+        <v>456.8403490505095</v>
+      </c>
+      <c r="L2120" t="n">
+        <v>45.28506407625224</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="2" t="n">
+        <v>45136.375</v>
+      </c>
+      <c r="B2121" t="n">
+        <v>401</v>
+      </c>
+      <c r="C2121" t="n">
+        <v>406</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>400</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>403</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>12912546.09132035</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>5192923629.137397</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>405.5</v>
+      </c>
+      <c r="J2121" t="n">
+        <v>0.9938347718865598</v>
+      </c>
+      <c r="K2121" t="n">
+        <v>454.0238240871894</v>
+      </c>
+      <c r="L2121" t="n">
+        <v>45.62239413743441</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="2" t="n">
+        <v>45137.375</v>
+      </c>
+      <c r="B2122" t="n">
+        <v>403</v>
+      </c>
+      <c r="C2122" t="n">
+        <v>411</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>397</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>408</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>33418985.38934909</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>13565944338.99438</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>406</v>
+      </c>
+      <c r="J2122" t="n">
+        <v>1.004926108374384</v>
+      </c>
+      <c r="K2122" t="n">
+        <v>456.2603946491953</v>
+      </c>
+      <c r="L2122" t="n">
+        <v>45.35452415781585</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="2" t="n">
+        <v>45138.375</v>
+      </c>
+      <c r="B2123" t="n">
+        <v>409</v>
+      </c>
+      <c r="C2123" t="n">
+        <v>412</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>398</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>399</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>17679027.62157398</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>7146071762.319351</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>416</v>
+      </c>
+      <c r="J2123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2123" t="n">
+        <v>456.2603946491953</v>
+      </c>
+      <c r="L2123" t="n">
+        <v>45.35452415781585</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="2" t="n">
+        <v>45139.375</v>
+      </c>
+      <c r="B2124" t="n">
+        <v>399</v>
+      </c>
+      <c r="C2124" t="n">
+        <v>404</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>388</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>403</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>24346666.29126635</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>9644142551.845129</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>406</v>
+      </c>
+      <c r="J2124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2124" t="n">
+        <v>456.2603946491953</v>
+      </c>
+      <c r="L2124" t="n">
+        <v>45.35452415781585</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="2" t="n">
+        <v>45140.375</v>
+      </c>
+      <c r="B2125" t="n">
+        <v>403</v>
+      </c>
+      <c r="C2125" t="n">
+        <v>406</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>393</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>394</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>16176212.56238328</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>6470351350.373735</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>411</v>
+      </c>
+      <c r="J2125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2125" t="n">
+        <v>456.2603946491953</v>
+      </c>
+      <c r="L2125" t="n">
+        <v>45.35452415781585</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="2" t="n">
+        <v>45141.375</v>
+      </c>
+      <c r="B2126" t="n">
+        <v>394</v>
+      </c>
+      <c r="C2126" t="n">
+        <v>396</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>384</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>385</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>23533861.4472176</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>9178222071.86474</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="J2126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2126" t="n">
+        <v>456.2603946491953</v>
+      </c>
+      <c r="L2126" t="n">
+        <v>45.35452415781585</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="2" t="n">
+        <v>45142.375</v>
+      </c>
+      <c r="B2127" t="n">
+        <v>385</v>
+      </c>
+      <c r="C2127" t="n">
+        <v>393</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>384</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>387</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>19231196.43998952</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>7455425796.581994</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>391</v>
+      </c>
+      <c r="J2127" t="n">
+        <v>0.9897698209718671</v>
+      </c>
+      <c r="K2127" t="n">
+        <v>451.5927691284875</v>
+      </c>
+      <c r="L2127" t="n">
+        <v>45.91355715875891</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="2" t="n">
+        <v>45143.375</v>
+      </c>
+      <c r="B2128" t="n">
+        <v>387</v>
+      </c>
+      <c r="C2128" t="n">
+        <v>390</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>383</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>388</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>11986209.53717485</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>4626559491.991642</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="J2128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2128" t="n">
+        <v>451.5927691284875</v>
+      </c>
+      <c r="L2128" t="n">
+        <v>45.91355715875891</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="2" t="n">
+        <v>45144.375</v>
+      </c>
+      <c r="B2129" t="n">
+        <v>389</v>
+      </c>
+      <c r="C2129" t="n">
+        <v>393</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>386</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>387</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>10714285.29179673</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>4173203917.849835</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="J2129" t="n">
+        <v>0.9859872611464968</v>
+      </c>
+      <c r="K2129" t="n">
+        <v>445.2647175865596</v>
+      </c>
+      <c r="L2129" t="n">
+        <v>46.67145635780815</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="2" t="n">
+        <v>45145.375</v>
+      </c>
+      <c r="B2130" t="n">
+        <v>387</v>
+      </c>
+      <c r="C2130" t="n">
+        <v>393</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>378</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>384</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>20554362.33117886</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>7920109750.810548</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="J2130" t="n">
+        <v>0.9833546734955185</v>
+      </c>
+      <c r="K2130" t="n">
+        <v>437.8531409814056</v>
+      </c>
+      <c r="L2130" t="n">
+        <v>47.55912737874092</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="2" t="n">
+        <v>45146.375</v>
+      </c>
+      <c r="B2131" t="n">
+        <v>384</v>
+      </c>
+      <c r="C2131" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>384</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>393</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>14055503.6800477</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>5488291867.48952</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="J2131" t="n">
+        <v>1.003831417624521</v>
+      </c>
+      <c r="K2131" t="n">
+        <v>439.5307392227137</v>
+      </c>
+      <c r="L2131" t="n">
+        <v>47.35820449513457</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="2" t="n">
+        <v>45147.375</v>
+      </c>
+      <c r="B2132" t="n">
+        <v>393</v>
+      </c>
+      <c r="C2132" t="n">
+        <v>401</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>393</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>16140892.10218289</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>6398000733.513656</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>401</v>
+      </c>
+      <c r="J2132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2132" t="n">
+        <v>439.5307392227137</v>
+      </c>
+      <c r="L2132" t="n">
+        <v>47.35820449513457</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="2" t="n">
+        <v>45148.375</v>
+      </c>
+      <c r="B2133" t="n">
+        <v>399</v>
+      </c>
+      <c r="C2133" t="n">
+        <v>401</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>393</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>393</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>10160387.61421812</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>4024825640.810606</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>403</v>
+      </c>
+      <c r="J2133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2133" t="n">
+        <v>439.5307392227137</v>
+      </c>
+      <c r="L2133" t="n">
+        <v>47.35820449513457</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="2" t="n">
+        <v>45149.375</v>
+      </c>
+      <c r="B2134" t="n">
+        <v>394</v>
+      </c>
+      <c r="C2134" t="n">
+        <v>396</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>391</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>392</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>7797426.97737793</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>3067818244.474395</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>398</v>
+      </c>
+      <c r="J2134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2134" t="n">
+        <v>439.5307392227137</v>
+      </c>
+      <c r="L2134" t="n">
+        <v>47.35820449513457</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="2" t="n">
+        <v>45150.375</v>
+      </c>
+      <c r="B2135" t="n">
+        <v>391</v>
+      </c>
+      <c r="C2135" t="n">
+        <v>393</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>388</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>390</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>7308397.22381402</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>2859083471.957335</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>393.5</v>
+      </c>
+      <c r="J2135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2135" t="n">
+        <v>439.5307392227137</v>
+      </c>
+      <c r="L2135" t="n">
+        <v>47.35820449513457</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="2" t="n">
+        <v>45151.375</v>
+      </c>
+      <c r="B2136" t="n">
+        <v>390</v>
+      </c>
+      <c r="C2136" t="n">
+        <v>392</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>385</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>387</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>10992666.76050076</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>4270824920.431802</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="J2136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2136" t="n">
+        <v>439.5307392227137</v>
+      </c>
+      <c r="L2136" t="n">
+        <v>47.35820449513457</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="2" t="n">
+        <v>45152.375</v>
+      </c>
+      <c r="B2137" t="n">
+        <v>387</v>
+      </c>
+      <c r="C2137" t="n">
+        <v>391</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>384</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>388</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>11101426.86160121</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>4303423475.811005</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>390.5</v>
+      </c>
+      <c r="J2137" t="n">
+        <v>0.9935979513444302</v>
+      </c>
+      <c r="K2137" t="n">
+        <v>436.7168420445913</v>
+      </c>
+      <c r="L2137" t="n">
+        <v>47.69521983127326</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="2" t="n">
+        <v>45153.375</v>
+      </c>
+      <c r="B2138" t="n">
+        <v>388</v>
+      </c>
+      <c r="C2138" t="n">
+        <v>391</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>375</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>380</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>14558786.22305169</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>5600312373.826875</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="J2138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2138" t="n">
+        <v>436.7168420445913</v>
+      </c>
+      <c r="L2138" t="n">
+        <v>47.69521983127326</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="2" t="n">
+        <v>45154.375</v>
+      </c>
+      <c r="B2139" t="n">
+        <v>380</v>
+      </c>
+      <c r="C2139" t="n">
+        <v>382</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>363</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>373</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>23514792.49291808</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>8799861538.357666</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>388</v>
+      </c>
+      <c r="J2139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2139" t="n">
+        <v>436.7168420445913</v>
+      </c>
+      <c r="L2139" t="n">
+        <v>47.69521983127326</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="2" t="n">
+        <v>45155.375</v>
+      </c>
+      <c r="B2140" t="n">
+        <v>373</v>
+      </c>
+      <c r="C2140" t="n">
+        <v>378</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>340</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>351</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>27857815.91382903</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>9996964603.468828</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>382.5</v>
+      </c>
+      <c r="J2140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2140" t="n">
+        <v>436.7168420445913</v>
+      </c>
+      <c r="L2140" t="n">
+        <v>47.69521983127326</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="2" t="n">
+        <v>45156.375</v>
+      </c>
+      <c r="B2141" t="n">
+        <v>351</v>
+      </c>
+      <c r="C2141" t="n">
+        <v>369</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>349</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>363</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>18849829.43706222</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>6752318743.075934</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>370</v>
+      </c>
+      <c r="J2141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2141" t="n">
+        <v>436.7168420445913</v>
+      </c>
+      <c r="L2141" t="n">
+        <v>47.69521983127326</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="2" t="n">
+        <v>45157.375</v>
+      </c>
+      <c r="B2142" t="n">
+        <v>362</v>
+      </c>
+      <c r="C2142" t="n">
+        <v>373</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>359</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>371</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>10161895.0042056</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>3724110100.550751</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>372</v>
+      </c>
+      <c r="J2142" t="n">
+        <v>0.9973118279569892</v>
+      </c>
+      <c r="K2142" t="n">
+        <v>435.5428720390951</v>
+      </c>
+      <c r="L2142" t="n">
+        <v>47.83582407903866</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="2" t="n">
+        <v>45158.375</v>
+      </c>
+      <c r="B2143" t="n">
+        <v>371</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>375</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>363</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>372</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>13233384.20221333</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>4886828301.816861</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>378</v>
+      </c>
+      <c r="J2143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2143" t="n">
+        <v>435.5428720390951</v>
+      </c>
+      <c r="L2143" t="n">
+        <v>47.83582407903866</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="2" t="n">
+        <v>45159.375</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>371</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>374</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>356</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>361</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>9401076.12528987</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>3433615853.861959</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>377</v>
+      </c>
+      <c r="J2144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2144" t="n">
+        <v>435.5428720390951</v>
+      </c>
+      <c r="L2144" t="n">
+        <v>47.83582407903866</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="2" t="n">
+        <v>45160.375</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>360</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>362</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>355</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>17354360.08869551</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>6135148850.741092</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>369</v>
+      </c>
+      <c r="J2145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2145" t="n">
+        <v>435.5428720390951</v>
+      </c>
+      <c r="L2145" t="n">
+        <v>47.83582407903866</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="2" t="n">
+        <v>45161.375</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>354</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>367</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>353</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>365</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>11567399.94696869</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>4143634410.490582</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="J2146" t="n">
+        <v>1.006896551724138</v>
+      </c>
+      <c r="K2146" t="n">
+        <v>438.5466159841923</v>
+      </c>
+      <c r="L2146" t="n">
+        <v>47.47607114165272</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="2" t="n">
+        <v>45162.375</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>364</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>367</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>355</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>361</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>12078182.89948915</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>4349477473.111837</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>371</v>
+      </c>
+      <c r="J2147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2147" t="n">
+        <v>438.5466159841923</v>
+      </c>
+      <c r="L2147" t="n">
+        <v>47.47607114165272</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="2" t="n">
+        <v>45163.375</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>362</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>367</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>352</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>355</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>10611119.23395162</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>3791637274.143305</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>368</v>
+      </c>
+      <c r="J2148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2148" t="n">
+        <v>438.5466159841923</v>
+      </c>
+      <c r="L2148" t="n">
+        <v>47.47607114165272</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="2" t="n">
+        <v>45164.375</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>356</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>356</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>351</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>355</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>5610432.99509289</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>1984467645.353591</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="J2149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2149" t="n">
+        <v>438.5466159841923</v>
+      </c>
+      <c r="L2149" t="n">
+        <v>47.47607114165272</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="2" t="n">
+        <v>45165.375</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>355</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>360</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>354</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>357</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>6525354.80374237</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>2329308802.251721</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="J2150" t="n">
+        <v>0.9986013986013986</v>
+      </c>
+      <c r="K2150" t="n">
+        <v>437.933264073725</v>
+      </c>
+      <c r="L2150" t="n">
+        <v>47.54953118201404</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="2" t="n">
+        <v>45166.375</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>357</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>362</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>350</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>362</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>10148742.64732369</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>3605618112.712448</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>360</v>
+      </c>
+      <c r="J2151" t="n">
+        <v>1.005555555555556</v>
+      </c>
+      <c r="K2151" t="n">
+        <v>440.3662266519123</v>
+      </c>
+      <c r="L2151" t="n">
+        <v>47.25813968858078</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="2" t="n">
+        <v>45167.375</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>361</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>379</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>353</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>368</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>27244152.65909526</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>10004963511.74074</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>367</v>
+      </c>
+      <c r="J2152" t="n">
+        <v>1.002724795640327</v>
+      </c>
+      <c r="K2152" t="n">
+        <v>441.5661346264407</v>
+      </c>
+      <c r="L2152" t="n">
+        <v>47.1144288975415</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="2" t="n">
+        <v>45168.375</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>368</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>369</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>354</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>360</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>18843830.52678491</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>6796723259.270465</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>381</v>
+      </c>
+      <c r="J2153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2153" t="n">
+        <v>441.5661346264407</v>
+      </c>
+      <c r="L2153" t="n">
+        <v>47.1144288975415</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="2" t="n">
+        <v>45169.375</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>361</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>363</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>349</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>20446590.91519164</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>7249275371.99361</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="J2154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2154" t="n">
+        <v>441.5661346264407</v>
+      </c>
+      <c r="L2154" t="n">
+        <v>47.1144288975415</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="2" t="n">
+        <v>45170.375</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>353</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>346</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>350</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>9300080.773545099</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>3250892305.125111</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>359</v>
+      </c>
+      <c r="J2155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2155" t="n">
+        <v>441.5661346264407</v>
+      </c>
+      <c r="L2155" t="n">
+        <v>47.1144288975415</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="2" t="n">
+        <v>45171.375</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>352</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>349</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>6084813.63093182</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>2121942029.041471</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="J2156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2156" t="n">
+        <v>441.5661346264407</v>
+      </c>
+      <c r="L2156" t="n">
+        <v>47.1144288975415</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="2" t="n">
+        <v>45172.375</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>349</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>350</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>347</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>6492141.54736077</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>2251446508.601201</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="J2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2157" t="n">
+        <v>441.5661346264407</v>
+      </c>
+      <c r="L2157" t="n">
+        <v>47.1144288975415</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="2" t="n">
+        <v>45173.375</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>347</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>352</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>344</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>347</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>8041281.19417796</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>2796581447.004287</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="J2158" t="n">
+        <v>0.9928469241773963</v>
+      </c>
+      <c r="K2158" t="n">
+        <v>438.4075785847637</v>
+      </c>
+      <c r="L2158" t="n">
+        <v>47.49272339755908</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="2" t="n">
+        <v>45174.375</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>347</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>353</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>351</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>7903007.88929884</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>2756257807.740653</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2159" t="n">
+        <v>351</v>
+      </c>
+      <c r="J2159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2159" t="n">
+        <v>438.4075785847637</v>
+      </c>
+      <c r="L2159" t="n">
+        <v>47.49272339755908</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="2" t="n">
+        <v>45175.375</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>349</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>355</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>350</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>7001069.51485507</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>2447160038.519236</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2160" t="n">
+        <v>353</v>
+      </c>
+      <c r="J2160" t="n">
+        <v>0.9915014164305949</v>
+      </c>
+      <c r="K2160" t="n">
+        <v>434.6817351407005</v>
+      </c>
+      <c r="L2160" t="n">
+        <v>47.9389608757668</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>352</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>351</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>7612538.93450335</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>2650156563.687323</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2161" t="n">
+        <v>355</v>
+      </c>
+      <c r="J2161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2161" t="n">
+        <v>434.6817351407005</v>
+      </c>
+      <c r="L2161" t="n">
+        <v>47.9389608757668</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="2" t="n">
+        <v>45177.375</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>352</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>347</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>8424201.68358787</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>2923615260.183167</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2162" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="J2162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2162" t="n">
+        <v>434.6817351407005</v>
+      </c>
+      <c r="L2162" t="n">
+        <v>47.9389608757668</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="2" t="n">
+        <v>45178.375</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>347</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>348</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>345</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>4222292.04507455</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>1464152424.164246</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="J2163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2163" t="n">
+        <v>434.6817351407005</v>
+      </c>
+      <c r="L2163" t="n">
+        <v>47.9389608757668</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="2" t="n">
+        <v>45179.375</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>346</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>346</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>335</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>339</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>13369950.74154172</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>4549762724.202516</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="J2164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2164" t="n">
+        <v>434.6817351407005</v>
+      </c>
+      <c r="L2164" t="n">
+        <v>47.9389608757668</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="2" t="n">
+        <v>45180.375</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>340</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>340</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>324</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>331</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>16721320.22390649</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>5553467498.553016</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="J2165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2165" t="n">
+        <v>434.6817351407005</v>
+      </c>
+      <c r="L2165" t="n">
+        <v>47.9389608757668</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="2" t="n">
+        <v>45181.375</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>331</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>342</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>329</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>333</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>11578151.48052985</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>3888725711.276478</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>339</v>
+      </c>
+      <c r="J2166" t="n">
+        <v>0.9823008849557522</v>
+      </c>
+      <c r="K2166" t="n">
+        <v>426.988253102812</v>
+      </c>
+      <c r="L2166" t="n">
+        <v>48.8603951965497</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="2" t="n">
+        <v>45182.375</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>333</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>339</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>331</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>336</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>6951934.38276859</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>2330310462.733246</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="J2167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2167" t="n">
+        <v>426.988253102812</v>
+      </c>
+      <c r="L2167" t="n">
+        <v>48.8603951965497</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="2" t="n">
+        <v>45183.375</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>336</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>342</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>333</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>339</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>10871451.40488384</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>3675289681.000925</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>340</v>
+      </c>
+      <c r="J2168" t="n">
+        <v>0.9970588235294118</v>
+      </c>
+      <c r="K2168" t="n">
+        <v>425.7324052995684</v>
+      </c>
+      <c r="L2168" t="n">
+        <v>49.01080579891278</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="2" t="n">
+        <v>45184.375</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>339</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>345</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>333</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>15299101.45858304</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>5175899892.731468</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="J2169" t="n">
+        <v>0.9839883551673945</v>
+      </c>
+      <c r="K2169" t="n">
+        <v>418.9157292321809</v>
+      </c>
+      <c r="L2169" t="n">
+        <v>49.82722666676134</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="2" t="n">
+        <v>45185.375</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>338</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>343</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>336</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>340</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>16536778.61240711</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>5610435584.280355</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>344</v>
+      </c>
+      <c r="J2170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2170" t="n">
+        <v>418.9157292321809</v>
+      </c>
+      <c r="L2170" t="n">
+        <v>49.82722666676134</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="2" t="n">
+        <v>45186.375</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>340</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>340</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>331</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>333</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>11952880.24473057</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>4008422305.68186</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="J2171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2171" t="n">
+        <v>418.9157292321809</v>
+      </c>
+      <c r="L2171" t="n">
+        <v>49.82722666676134</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="2" t="n">
+        <v>45187.375</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>333</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>344</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>330</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>14913927.6640195</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>5046513669.978276</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="J2172" t="n">
+        <v>1.001481481481481</v>
+      </c>
+      <c r="K2172" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2172" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="2" t="n">
+        <v>45188.375</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>338</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>345</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>336</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>342</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>12008991.66190877</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>4094109568.032322</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>345</v>
+      </c>
+      <c r="J2173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2173" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2173" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="2" t="n">
+        <v>45189.375</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>342</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>345</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>337</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>339</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>12746274.81952282</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>4341572024.716926</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="J2174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2174" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2174" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="2" t="n">
+        <v>45190.375</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>340</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>342</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>332</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>333</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>13472058.83643586</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>4540746103.785294</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>344</v>
+      </c>
+      <c r="J2175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2175" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2175" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="2" t="n">
+        <v>45191.375</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>332</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>335</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>329</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>332</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>18708776.84628673</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>6202269643.114524</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>337</v>
+      </c>
+      <c r="J2176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2176" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2176" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="2" t="n">
+        <v>45192.375</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>331</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>334</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>330</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>333</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>8390458.940965571</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>2785996061.447408</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>334</v>
+      </c>
+      <c r="J2177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2177" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2177" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="2" t="n">
+        <v>45193.375</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>332</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>333</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>326</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>328</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>10347640.7022052</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>3424711950.772598</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>334</v>
+      </c>
+      <c r="J2178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2178" t="n">
+        <v>419.5363451273396</v>
+      </c>
+      <c r="L2178" t="n">
+        <v>49.75289663219358</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="2" t="n">
+        <v>45194.375</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>328</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>333</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>326</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>332</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>8494336.77684324</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>2802372016.623537</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="J2179" t="n">
+        <v>1.001508295625943</v>
+      </c>
+      <c r="K2179" t="n">
+        <v>420.1691299616192</v>
+      </c>
+      <c r="L2179" t="n">
+        <v>49.67710914596763</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="2" t="n">
+        <v>45195.375</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>331</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>336</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>331</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>332</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>6752629.93384964</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>2248917089.200186</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="J2180" t="n">
+        <v>0.992526158445441</v>
+      </c>
+      <c r="K2180" t="n">
+        <v>417.0288524581692</v>
+      </c>
+      <c r="L2180" t="n">
+        <v>50.05321445877803</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="2" t="n">
+        <v>45196.375</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>332</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>338</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>331</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>333</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>9425143.46486453</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>3151473302.598128</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="J2181" t="n">
+        <v>0.9955156950672646</v>
+      </c>
+      <c r="K2181" t="n">
+        <v>415.158767917998</v>
+      </c>
+      <c r="L2181" t="n">
+        <v>50.2771910755548</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="2" t="n">
+        <v>45197.375</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>333</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>340</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>332</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>337</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>8176984.65345395</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>2753532268.804979</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="J2182" t="n">
+        <v>1.00148588410104</v>
+      </c>
+      <c r="K2182" t="n">
+        <v>415.7756457306548</v>
+      </c>
+      <c r="L2182" t="n">
+        <v>50.20330874431492</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="2" t="n">
+        <v>45198.375</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>337</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>346</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>336</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>14378293.96750816</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>4899202897.553786</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>341</v>
+      </c>
+      <c r="J2183" t="n">
+        <v>0.9912023460410557</v>
+      </c>
+      <c r="K2183" t="n">
+        <v>412.1177954749599</v>
+      </c>
+      <c r="L2183" t="n">
+        <v>50.64140280228282</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="2" t="n">
+        <v>45199.375</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>338</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>345</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>337</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>344</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>7948656.04196526</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>2711814253.988737</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>343</v>
+      </c>
+      <c r="J2184" t="n">
+        <v>1.002915451895044</v>
+      </c>
+      <c r="K2184" t="n">
+        <v>413.3193050827587</v>
+      </c>
+      <c r="L2184" t="n">
+        <v>50.49750018654603</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="2" t="n">
+        <v>45200.375</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>344</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>361</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>344</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>358</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>17409929.06825609</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>6133830123.15272</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>348</v>
+      </c>
+      <c r="J2185" t="n">
+        <v>1.028735632183908</v>
+      </c>
+      <c r="K2185" t="n">
+        <v>425.1962966081253</v>
+      </c>
+      <c r="L2185" t="n">
+        <v>49.07501455972264</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>358</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>365</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>350</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>352</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>17957056.03483728</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>6420872528.247803</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="J2186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2186" t="n">
+        <v>425.1962966081253</v>
+      </c>
+      <c r="L2186" t="n">
+        <v>49.07501455972264</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="2" t="n">
+        <v>45202.375</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>353</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>361</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>349</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>354</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>16821242.66518555</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>5998398791.923581</v>
+      </c>
+      <c r="H2187" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2187" t="n">
+        <v>360.5</v>
+      </c>
+      <c r="J2187" t="n">
+        <v>0.9819694868238558</v>
+      </c>
+      <c r="K2187" t="n">
+        <v>417.5297891796848</v>
+      </c>
+      <c r="L2187" t="n">
+        <v>49.99321818069851</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="2" t="n">
+        <v>45203.375</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>355</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>355</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>344</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>351</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>11394923.23426985</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>3973419513.706409</v>
+      </c>
+      <c r="H2188" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I2188" t="n">
+        <v>361</v>
+      </c>
+      <c r="J2188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2188" t="n">
+        <v>417.5297891796848</v>
+      </c>
+      <c r="L2188" t="n">
+        <v>49.99321818069851</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="2" t="n">
+        <v>45204.375</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>359</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>347</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>353</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>12454727.73732053</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>4403124746.308021</v>
+      </c>
+      <c r="H2189" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2189" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J2189" t="n">
+        <v>0.9929676511954993</v>
+      </c>
+      <c r="K2189" t="n">
+        <v>414.5935740659036</v>
+      </c>
+      <c r="L2189" t="n">
+        <v>50.3448833130424</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="2" t="n">
+        <v>45205.375</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>353</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>361</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>353</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>358</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>10533551.10503166</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>3766517028.902355</v>
+      </c>
+      <c r="H2190" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2190" t="n">
+        <v>359</v>
+      </c>
+      <c r="J2190" t="n">
+        <v>0.9972144846796658</v>
+      </c>
+      <c r="K2190" t="n">
+        <v>413.4387173136309</v>
+      </c>
+      <c r="L2190" t="n">
+        <v>50.48319840130691</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="2" t="n">
+        <v>45206.375</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>358</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>360</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>347</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>350</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>13595253.9305541</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>4784995363.892424</v>
+      </c>
+      <c r="H2191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2191" t="n">
+        <v>362</v>
+      </c>
+      <c r="J2191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2191" t="n">
+        <v>413.4387173136309</v>
+      </c>
+      <c r="L2191" t="n">
+        <v>50.48319840130691</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="2" t="n">
+        <v>45207.375</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>350</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>352</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>347</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>349</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>7124691.21016431</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>2486577807.346802</v>
+      </c>
+      <c r="H2192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2192" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="J2192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2192" t="n">
+        <v>413.4387173136309</v>
+      </c>
+      <c r="L2192" t="n">
+        <v>50.48319840130691</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="2" t="n">
+        <v>45208.375</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>347</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>353</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>339</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>342</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>19083502.93162586</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>6582545713.800171</v>
+      </c>
+      <c r="H2193" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2193" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="J2193" t="n">
+        <v>0.9785407725321889</v>
+      </c>
+      <c r="K2193" t="n">
+        <v>404.5666418347977</v>
+      </c>
+      <c r="L2193" t="n">
+        <v>51.54579071029173</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="2" t="n">
+        <v>45209.375</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>342</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>346</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>337</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>339</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>7681563.46109395</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>2615872564.413569</v>
+      </c>
+      <c r="H2194" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2194" t="n">
+        <v>349</v>
+      </c>
+      <c r="J2194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2194" t="n">
+        <v>404.5666418347977</v>
+      </c>
+      <c r="L2194" t="n">
+        <v>51.54579071029173</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="2" t="n">
+        <v>45210.375</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>339</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>340</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>333</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>339</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>8007445.57113039</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>2692180961.179827</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="J2195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2195" t="n">
+        <v>404.5666418347977</v>
+      </c>
+      <c r="L2195" t="n">
+        <v>51.54579071029173</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="2" t="n">
+        <v>45211.375</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>339</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>339</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>332</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>6241721.57543972</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>2091598017.32141</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="J2196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2196" t="n">
+        <v>404.5666418347977</v>
+      </c>
+      <c r="L2196" t="n">
+        <v>51.54579071029173</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="2" t="n">
+        <v>45212.375</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>337</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>343</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>336</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>4162226.80647353</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>1410278564.840932</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="J2197" t="n">
+        <v>0.9926578560939795</v>
+      </c>
+      <c r="K2197" t="n">
+        <v>401.5962553308711</v>
+      </c>
+      <c r="L2197" t="n">
+        <v>51.9015484877492</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="2" t="n">
+        <v>45213.375</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>338</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>341</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>337</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>339</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>3603784.85936678</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>1221051697.449039</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="J2198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2198" t="n">
+        <v>401.5962553308711</v>
+      </c>
+      <c r="L2198" t="n">
+        <v>51.9015484877492</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="2" t="n">
+        <v>45214.375</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>339</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>340</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>335</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>6492584.36269835</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>2192935277.985049</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>341</v>
+      </c>
+      <c r="J2199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2199" t="n">
+        <v>401.5962553308711</v>
+      </c>
+      <c r="L2199" t="n">
+        <v>51.9015484877492</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="2" t="n">
+        <v>45215.375</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>338</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>354</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>338</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>341</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>20136466.60355759</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>6921407608.138288</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="J2200" t="n">
+        <v>1.001468428781204</v>
+      </c>
+      <c r="K2200" t="n">
+        <v>402.1859708306228</v>
+      </c>
+      <c r="L2200" t="n">
+        <v>51.83091933721726</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="2" t="n">
+        <v>45216.375</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>341</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>343</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>335</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>335</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>17936762.65352339</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>6077260233.004694</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>349</v>
+      </c>
+      <c r="J2201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2201" t="n">
+        <v>402.1859708306228</v>
+      </c>
+      <c r="L2201" t="n">
+        <v>51.83091933721726</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="2" t="n">
+        <v>45217.375</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>335</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>338</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>331</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>332</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>12261543.49067914</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>4105247103.899598</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>339</v>
+      </c>
+      <c r="J2202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2202" t="n">
+        <v>402.1859708306228</v>
+      </c>
+      <c r="L2202" t="n">
+        <v>51.83091933721726</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="2" t="n">
+        <v>45218.375</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>332</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>337</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>328</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>335</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>12675092.39351219</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>4205137072.828821</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="J2203" t="n">
+        <v>0.9985096870342772</v>
+      </c>
+      <c r="K2203" t="n">
+        <v>401.5865878636621</v>
+      </c>
+      <c r="L2203" t="n">
+        <v>51.90270634267596</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="2" t="n">
+        <v>45219.375</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>335</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>343</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>333</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>341</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>22067906.28424478</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>7466001723.248446</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="J2204" t="n">
+        <v>1.004418262150221</v>
+      </c>
+      <c r="K2204" t="n">
+        <v>403.3609026848565</v>
+      </c>
+      <c r="L2204" t="n">
+        <v>51.69019989058173</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="2" t="n">
+        <v>45220.375</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>341</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>354</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>339</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>349</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>20828811.4955936</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>7231263763.851532</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>346</v>
+      </c>
+      <c r="J2205" t="n">
+        <v>1.008670520231214</v>
+      </c>
+      <c r="K2205" t="n">
+        <v>406.8582515520662</v>
+      </c>
+      <c r="L2205" t="n">
+        <v>51.27132879136713</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="2" t="n">
+        <v>45221.375</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>349</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>356</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>346</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>356</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>15409325.3091346</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>5403032093.379566</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="J2206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2206" t="n">
+        <v>406.8582515520662</v>
+      </c>
+      <c r="L2206" t="n">
+        <v>51.27132879136713</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="2" t="n">
+        <v>45222.375</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>354</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>376</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>354</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>375</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>41466159.72435355</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>14969231386.50614</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>359</v>
+      </c>
+      <c r="J2207" t="n">
+        <v>1.044568245125348</v>
+      </c>
+      <c r="K2207" t="n">
+        <v>424.9912098385093</v>
+      </c>
+      <c r="L2207" t="n">
+        <v>49.09957742830828</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="2" t="n">
+        <v>45223.375</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>375</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>391</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>369</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>375</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>59420723.97956022</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>22531630548.31335</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>386</v>
+      </c>
+      <c r="J2208" t="n">
+        <v>0.9715025906735751</v>
+      </c>
+      <c r="K2208" t="n">
+        <v>412.8800613716087</v>
+      </c>
+      <c r="L2208" t="n">
+        <v>50.55010760522178</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="2" t="n">
+        <v>45224.375</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>375</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>390</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>374</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>378</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>28543850.6865025</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>10857358813.52259</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>386</v>
+      </c>
+      <c r="J2209" t="n">
+        <v>0.9792746113989638</v>
+      </c>
+      <c r="K2209" t="n">
+        <v>404.3229616540625</v>
+      </c>
+      <c r="L2209" t="n">
+        <v>51.57497584138299</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="2" t="n">
+        <v>45225.375</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>378</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>401</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>377</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>388</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>54283672.7350631</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>21180954092.9957</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>386</v>
+      </c>
+      <c r="J2210" t="n">
+        <v>1.005181347150259</v>
+      </c>
+      <c r="K2210" t="n">
+        <v>406.417899279213</v>
+      </c>
+      <c r="L2210" t="n">
+        <v>51.32406898045752</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="2" t="n">
+        <v>45226.375</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>388</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>396</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>378</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>393</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>25038375.17670259</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>9694911293.478004</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>400</v>
+      </c>
+      <c r="J2211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2211" t="n">
+        <v>406.417899279213</v>
+      </c>
+      <c r="L2211" t="n">
+        <v>51.32406898045752</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="2" t="n">
+        <v>45227.375</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>392</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>404</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>392</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>395</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>21015492.74535839</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>8371319060.705627</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>401</v>
+      </c>
+      <c r="J2212" t="n">
+        <v>0.9850374064837906</v>
+      </c>
+      <c r="K2212" t="n">
+        <v>400.3368334545864</v>
+      </c>
+      <c r="L2212" t="n">
+        <v>52.05238715032598</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>395</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>405</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>393</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>400</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>16657923.89281148</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>6652226998.783616</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>401</v>
+      </c>
+      <c r="J2213" t="n">
+        <v>0.9975062344139651</v>
+      </c>
+      <c r="K2213" t="n">
+        <v>399.3384872364952</v>
+      </c>
+      <c r="L2213" t="n">
+        <v>52.17195725718301</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="2" t="n">
+        <v>45229.375</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>400</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>411</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>397</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>410</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>24011076.6750684</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>9696048891.395372</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>406</v>
+      </c>
+      <c r="J2214" t="n">
+        <v>1.009852216748768</v>
+      </c>
+      <c r="K2214" t="n">
+        <v>403.2728565688745</v>
+      </c>
+      <c r="L2214" t="n">
+        <v>51.70074501341142</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="2" t="n">
+        <v>45230.375</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>410</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>414</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>388</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>399</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>49766348.36235577</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>20063795228.93932</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>417</v>
+      </c>
+      <c r="J2215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2215" t="n">
+        <v>403.2728565688745</v>
+      </c>
+      <c r="L2215" t="n">
+        <v>51.70074501341142</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>399</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>419</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>388</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>416</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>48074854.04801073</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>19251228514.51557</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>412</v>
+      </c>
+      <c r="J2216" t="n">
+        <v>1.009708737864078</v>
+      </c>
+      <c r="K2216" t="n">
+        <v>407.1881270209995</v>
+      </c>
+      <c r="L2216" t="n">
+        <v>51.23182020771638</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="2" t="n">
+        <v>45232.375</v>
+      </c>
+      <c r="B2217" t="n">
+        <v>416</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>448</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>406</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>439</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>60339860.08823183</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>25675677245.65789</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>431.5</v>
+      </c>
+      <c r="J2217" t="n">
+        <v>1.017381228273465</v>
+      </c>
+      <c r="K2217" t="n">
+        <v>414.265556806996</v>
+      </c>
+      <c r="L2217" t="n">
+        <v>50.38416934226533</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="2" t="n">
+        <v>45233.375</v>
+      </c>
+      <c r="B2218" t="n">
+        <v>439</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>445</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>418</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>443</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>52905975.93101341</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>22898653372.1593</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>460</v>
+      </c>
+      <c r="J2218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2218" t="n">
+        <v>414.265556806996</v>
+      </c>
+      <c r="L2218" t="n">
+        <v>50.38416934226533</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="2" t="n">
+        <v>45234.375</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>443</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>445</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>433</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>440</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>30874348.64642972</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>13536147844.84369</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>456.5</v>
+      </c>
+      <c r="J2219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2219" t="n">
+        <v>414.265556806996</v>
+      </c>
+      <c r="L2219" t="n">
+        <v>50.38416934226533</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="2" t="n">
+        <v>45235.375</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>440</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>470</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>437</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>459</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>46653171.91017285</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>21206800332.00841</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>446</v>
+      </c>
+      <c r="J2220" t="n">
+        <v>1.02914798206278</v>
+      </c>
+      <c r="K2220" t="n">
+        <v>426.340561826034</v>
+      </c>
+      <c r="L2220" t="n">
+        <v>48.93796800022374</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="2" t="n">
+        <v>45236.375</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>458</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>502</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>451</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>484</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>55396399.37558971</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>26267726159.13087</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="J2221" t="n">
+        <v>1.020021074815595</v>
+      </c>
+      <c r="K2221" t="n">
+        <v>434.876358111276</v>
+      </c>
+      <c r="L2221" t="n">
+        <v>47.91565123731989</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="2" t="n">
+        <v>45237.375</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>483</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>489</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>448</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>469</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>50736831.25448819</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>23780542138.37811</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="J2222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2222" t="n">
+        <v>434.876358111276</v>
+      </c>
+      <c r="L2222" t="n">
+        <v>47.91565123731989</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="2" t="n">
+        <v>45238.375</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>470</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>479</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>466</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>477</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>24816408.95361847</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>11748981674.0092</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>490.5</v>
+      </c>
+      <c r="J2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2223" t="n">
+        <v>434.876358111276</v>
+      </c>
+      <c r="L2223" t="n">
+        <v>47.91565123731989</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="2" t="n">
+        <v>45239.375</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>476</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>511</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>474</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>496</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>81901079.3007483</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>40356399527.91074</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="J2224" t="n">
+        <v>1.027979274611399</v>
+      </c>
+      <c r="K2224" t="n">
+        <v>447.0438831568764</v>
+      </c>
+      <c r="L2224" t="n">
+        <v>46.458368940333</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>45240.375</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>496</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>522</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>489</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>518</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>55571752.9543236</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>27931218069.93242</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>1.006802721088435</v>
+      </c>
+      <c r="K2225" t="n">
+        <v>450.0849980082837</v>
+      </c>
+      <c r="L2225" t="n">
+        <v>46.09414015761418</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>45241.375</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>527</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>496</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>514</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>47487017.12599364</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>24267112309.38035</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>534.5</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2226" t="n">
+        <v>450.0849980082837</v>
+      </c>
+      <c r="L2226" t="n">
+        <v>46.09414015761418</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>45242.375</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>513</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>520</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>498</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>511</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>31763858.02407289</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>16174873574.48365</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2227" t="n">
+        <v>450.0849980082837</v>
+      </c>
+      <c r="L2227" t="n">
+        <v>46.09414015761418</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>45243.375</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>511</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>517</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>478</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>482</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>52984422.89799736</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>26351826922.19382</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>522</v>
+      </c>
+      <c r="J2228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2228" t="n">
+        <v>450.0849980082837</v>
+      </c>
+      <c r="L2228" t="n">
+        <v>46.09414015761418</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>45244.375</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>482</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>499</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>468</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>482</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>56015632.37232365</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>27104883128.14371</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="J2229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2229" t="n">
+        <v>450.0849980082837</v>
+      </c>
+      <c r="L2229" t="n">
+        <v>46.09414015761418</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>45245.375</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>483</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>506</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>470</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>505</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>36681581.40176911</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>17940771777.29665</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>498.5</v>
+      </c>
+      <c r="J2230" t="n">
+        <v>1.013039117352056</v>
+      </c>
+      <c r="K2230" t="n">
+        <v>455.9537091157137</v>
+      </c>
+      <c r="L2230" t="n">
+        <v>45.39125532516582</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>45246.375</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>505</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>549</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>486</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>503</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>123699458.7852992</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>64478175783.4331</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>523</v>
+      </c>
+      <c r="J2231" t="n">
+        <v>0.9617590822179732</v>
+      </c>
+      <c r="K2231" t="n">
+        <v>438.5176208130095</v>
+      </c>
+      <c r="L2231" t="n">
+        <v>47.47954384045585</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>45247.375</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>503</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>511</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>481</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>496</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>53316703.09837853</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>26544010591.31162</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>534.5</v>
+      </c>
+      <c r="J2232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2232" t="n">
+        <v>438.5176208130095</v>
+      </c>
+      <c r="L2232" t="n">
+        <v>47.47954384045585</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>45248.375</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>496</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>509</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>472</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>507</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>34149043.28357119</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>16718719045.04425</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>511</v>
+      </c>
+      <c r="J2233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2233" t="n">
+        <v>438.5176208130095</v>
+      </c>
+      <c r="L2233" t="n">
+        <v>47.47954384045585</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="2" t="n">
+        <v>45249.375</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>507</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>514</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>496</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>513</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>29945299.05556278</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>15118692411.77997</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>525.5</v>
+      </c>
+      <c r="J2234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2234" t="n">
+        <v>438.5176208130095</v>
+      </c>
+      <c r="L2234" t="n">
+        <v>47.47954384045585</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="2" t="n">
+        <v>45250.375</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>512</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>532</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>507</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>510</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>37265060.85897773</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>19296887284.40584</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>521</v>
+      </c>
+      <c r="J2235" t="n">
+        <v>0.9788867562380038</v>
+      </c>
+      <c r="K2235" t="n">
+        <v>429.2590913908538</v>
+      </c>
+      <c r="L2235" t="n">
+        <v>48.58842103384353</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="2" t="n">
+        <v>45251.375</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>510</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>523</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>482</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>483</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>42040244.25199175</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>21173136981.76701</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="J2236" t="n">
+        <v>0.9244019138755981</v>
+      </c>
+      <c r="K2236" t="n">
+        <v>396.8079256302055</v>
+      </c>
+      <c r="L2236" t="n">
+        <v>52.47503800831852</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="2" t="n">
+        <v>45252.375</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>483</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>517</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>482</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>508</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>25988264.62778224</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>12966602006.77298</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="J2237" t="n">
+        <v>1.008937437934459</v>
+      </c>
+      <c r="K2237" t="n">
+        <v>400.3543718374269</v>
+      </c>
+      <c r="L2237" t="n">
+        <v>52.05028661018035</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="2" t="n">
+        <v>45253.375</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>508</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>519</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>504</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>518</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>22877615.56761923</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>11697399424.50907</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>525.5</v>
+      </c>
+      <c r="J2238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2238" t="n">
+        <v>400.3543718374269</v>
+      </c>
+      <c r="L2238" t="n">
+        <v>52.05028661018035</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="2" t="n">
+        <v>45254.375</v>
+      </c>
+      <c r="B2239" t="n">
+        <v>519</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>532</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>515</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>518</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>39948488.94638515</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>20898712416.8639</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>526.5</v>
+      </c>
+      <c r="J2239" t="n">
+        <v>0.9838556505223172</v>
+      </c>
+      <c r="K2239" t="n">
+        <v>393.8909109435652</v>
+      </c>
+      <c r="L2239" t="n">
+        <v>52.82440354050033</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="2" t="n">
+        <v>45255.375</v>
+      </c>
+      <c r="B2240" t="n">
+        <v>518</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>530</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>516</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>527</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>20628307.82707761</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>10803902357.80192</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>526.5</v>
+      </c>
+      <c r="J2240" t="n">
+        <v>1.000949667616334</v>
+      </c>
+      <c r="K2240" t="n">
+        <v>394.2649763860568</v>
+      </c>
+      <c r="L2240" t="n">
+        <v>52.77960240426148</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="2" t="n">
+        <v>45256.375</v>
+      </c>
+      <c r="B2241" t="n">
+        <v>527</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>529</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>510</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>519</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>20973500.17549609</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>10940702010.81031</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>534</v>
+      </c>
+      <c r="J2241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2241" t="n">
+        <v>394.2649763860568</v>
+      </c>
+      <c r="L2241" t="n">
+        <v>52.77960240426148</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="2" t="n">
+        <v>45257.375</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>519</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>526</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>502</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>511</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>24936805.22184786</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>12777624712.2219</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="J2242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2242" t="n">
+        <v>394.2649763860568</v>
+      </c>
+      <c r="L2242" t="n">
+        <v>52.77960240426148</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="2" t="n">
+        <v>45258.375</v>
+      </c>
+      <c r="B2243" t="n">
+        <v>511</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>519</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>497</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>515</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>21283521.99322049</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>10791196234.92355</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>523</v>
+      </c>
+      <c r="J2243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2243" t="n">
+        <v>394.2649763860568</v>
+      </c>
+      <c r="L2243" t="n">
+        <v>52.77960240426148</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="2" t="n">
+        <v>45259.375</v>
+      </c>
+      <c r="B2244" t="n">
+        <v>515</v>
+      </c>
+      <c r="C2244" t="n">
+        <v>520</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>507</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>511</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>21447579.11067195</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>11028453681.69264</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>526</v>
+      </c>
+      <c r="J2244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2244" t="n">
+        <v>394.2649763860568</v>
+      </c>
+      <c r="L2244" t="n">
+        <v>52.77960240426148</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="2" t="n">
+        <v>45260.375</v>
+      </c>
+      <c r="B2245" t="n">
+        <v>511</v>
+      </c>
+      <c r="C2245" t="n">
+        <v>513</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>500</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>504</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>18941970.37143569</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>9561948494.887131</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="J2245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2245" t="n">
+        <v>394.2649763860568</v>
+      </c>
+      <c r="L2245" t="n">
+        <v>52.77960240426148</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="2" t="n">
+        <v>45261.375</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>503</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>516</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>501</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>513</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>15562422.20578948</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>7927569260.735226</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>509.5</v>
+      </c>
+      <c r="J2246" t="n">
+        <v>1.006869479882238</v>
+      </c>
+      <c r="K2246" t="n">
+        <v>396.9733717096116</v>
+      </c>
+      <c r="L2246" t="n">
+        <v>52.4552228329463</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="2" t="n">
+        <v>45262.375</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>513</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>530</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>513</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>529</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>14115714.9457024</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>7345229573.855365</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>520.5</v>
+      </c>
+      <c r="J2247" t="n">
+        <v>1.016330451488953</v>
+      </c>
+      <c r="K2247" t="n">
+        <v>403.4561260987215</v>
+      </c>
+      <c r="L2247" t="n">
+        <v>51.67879515586667</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="2" t="n">
+        <v>45263.375</v>
+      </c>
+      <c r="B2248" t="n">
+        <v>529</v>
+      </c>
+      <c r="C2248" t="n">
+        <v>538</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>519</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>529</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>19832192.78475495</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>10491381486.66366</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="J2248" t="n">
+        <v>0.9841860465116279</v>
+      </c>
+      <c r="K2248" t="n">
+        <v>397.0758896859975</v>
+      </c>
+      <c r="L2248" t="n">
+        <v>52.4429444417739</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="2" t="n">
+        <v>45264.375</v>
+      </c>
+      <c r="B2249" t="n">
+        <v>529</v>
+      </c>
+      <c r="C2249" t="n">
+        <v>555</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>529</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>551</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>44948047.18976569</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>24457734630.67993</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>538.5</v>
+      </c>
+      <c r="J2249" t="n">
+        <v>1.023212627669452</v>
+      </c>
+      <c r="K2249" t="n">
+        <v>406.293064469795</v>
+      </c>
+      <c r="L2249" t="n">
+        <v>51.33902021804534</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="2" t="n">
+        <v>45265.375</v>
+      </c>
+      <c r="B2250" t="n">
+        <v>551</v>
+      </c>
+      <c r="C2250" t="n">
+        <v>583</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>537</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>582</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>42989117.89477721</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>23960452823.2626</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>564</v>
+      </c>
+      <c r="J2250" t="n">
+        <v>1.031914893617021</v>
+      </c>
+      <c r="K2250" t="n">
+        <v>419.2598643996821</v>
+      </c>
+      <c r="L2250" t="n">
+        <v>49.78601022500423</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="2" t="n">
+        <v>45266.375</v>
+      </c>
+      <c r="B2251" t="n">
+        <v>581</v>
+      </c>
+      <c r="C2251" t="n">
+        <v>627</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>574</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>610</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>94242944.6923264</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>56647527454.88011</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>604</v>
+      </c>
+      <c r="J2251" t="n">
+        <v>1.009933774834437</v>
+      </c>
+      <c r="K2251" t="n">
+        <v>423.4246974897451</v>
+      </c>
+      <c r="L2251" t="n">
+        <v>49.28719575704071</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="2" t="n">
+        <v>45267.375</v>
+      </c>
+      <c r="B2252" t="n">
+        <v>610</v>
+      </c>
+      <c r="C2252" t="n">
+        <v>629</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>594</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>625</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>59279540.21365479</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>36294126736.59436</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="J2252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2252" t="n">
+        <v>423.4246974897451</v>
+      </c>
+      <c r="L2252" t="n">
+        <v>49.28719575704071</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="2" t="n">
+        <v>45268.375</v>
+      </c>
+      <c r="B2253" t="n">
+        <v>624</v>
+      </c>
+      <c r="C2253" t="n">
+        <v>779</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>619</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>742</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>318203476.4788088</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>227700408606.3937</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="J2253" t="n">
+        <v>1.156664068589244</v>
+      </c>
+      <c r="K2253" t="n">
+        <v>489.7601333396585</v>
+      </c>
+      <c r="L2253" t="n">
+        <v>41.34232151476882</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="2" t="n">
+        <v>45269.375</v>
+      </c>
+      <c r="B2254" t="n">
+        <v>743</v>
+      </c>
+      <c r="C2254" t="n">
+        <v>876</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>740</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>795</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>616964455.7438918</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>507857634282.3529</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>68</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>823</v>
+      </c>
+      <c r="J2254" t="n">
+        <v>0.9659781287970839</v>
+      </c>
+      <c r="K2254" t="n">
+        <v>473.0975771628536</v>
+      </c>
+      <c r="L2254" t="n">
+        <v>43.33796549725542</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="2" t="n">
+        <v>45270.375</v>
+      </c>
+      <c r="B2255" t="n">
+        <v>795</v>
+      </c>
+      <c r="C2255" t="n">
+        <v>837</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>779</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>813</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>214575381.0879954</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>173996548855.2736</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>863</v>
+      </c>
+      <c r="J2255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2255" t="n">
+        <v>473.0975771628536</v>
+      </c>
+      <c r="L2255" t="n">
+        <v>43.33796549725542</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="2" t="n">
+        <v>45271.375</v>
+      </c>
+      <c r="B2256" t="n">
+        <v>812</v>
+      </c>
+      <c r="C2256" t="n">
+        <v>817</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>721</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>761</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>178423781.423807</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>136065255728.5371</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>48</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>841</v>
+      </c>
+      <c r="J2256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2256" t="n">
+        <v>473.0975771628536</v>
+      </c>
+      <c r="L2256" t="n">
+        <v>43.33796549725542</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="2" t="n">
+        <v>45272.375</v>
+      </c>
+      <c r="B2257" t="n">
+        <v>761</v>
+      </c>
+      <c r="C2257" t="n">
+        <v>833</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>760</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>804</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>197032806.8757184</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>157931628431.0674</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>809</v>
+      </c>
+      <c r="J2257" t="n">
+        <v>0.9938195302843016</v>
+      </c>
+      <c r="K2257" t="n">
+        <v>470.1736119146283</v>
+      </c>
+      <c r="L2257" t="n">
+        <v>43.68816348552949</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="2" t="n">
+        <v>45273.375</v>
+      </c>
+      <c r="B2258" t="n">
+        <v>803</v>
+      </c>
+      <c r="C2258" t="n">
+        <v>936</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>762</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>922</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>302424661.6893656</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>256923689645.1913</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>87</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>839.5</v>
+      </c>
+      <c r="J2258" t="n">
+        <v>1.09827278141751</v>
+      </c>
+      <c r="K2258" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2258" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="2" t="n">
+        <v>45274.375</v>
+      </c>
+      <c r="B2259" t="n">
+        <v>923</v>
+      </c>
+      <c r="C2259" t="n">
+        <v>948</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>864</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>880</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>275121263.7175391</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>247164871514.509</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>42</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J2259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2259" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2259" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="2" t="n">
+        <v>45275.375</v>
+      </c>
+      <c r="B2260" t="n">
+        <v>880</v>
+      </c>
+      <c r="C2260" t="n">
+        <v>898</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>831</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>831</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>134616236.7219431</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>116857449712.5373</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>922</v>
+      </c>
+      <c r="J2260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2260" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2260" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="2" t="n">
+        <v>45276.375</v>
+      </c>
+      <c r="B2261" t="n">
+        <v>831</v>
+      </c>
+      <c r="C2261" t="n">
+        <v>855</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>809</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>833</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>88347538.35015389</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>74018381815.20271</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>864.5</v>
+      </c>
+      <c r="J2261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2261" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2261" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="2" t="n">
+        <v>45277.375</v>
+      </c>
+      <c r="B2262" t="n">
+        <v>832</v>
+      </c>
+      <c r="C2262" t="n">
+        <v>848</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>791</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>796</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>78171988.54285058</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>63949529862.01206</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>855</v>
+      </c>
+      <c r="J2262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2262" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2262" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="2" t="n">
+        <v>45278.375</v>
+      </c>
+      <c r="B2263" t="n">
+        <v>796</v>
+      </c>
+      <c r="C2263" t="n">
+        <v>822</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>740</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>820</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>119031565.8166957</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>92448121125.89372</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>41</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>824.5</v>
+      </c>
+      <c r="J2263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2263" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2263" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="2" t="n">
+        <v>45279.375</v>
+      </c>
+      <c r="B2264" t="n">
+        <v>820</v>
+      </c>
+      <c r="C2264" t="n">
+        <v>838</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>776</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>788</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>88321198.45389248</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>71613895603.09198</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>861</v>
+      </c>
+      <c r="J2264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2264" t="n">
+        <v>516.3788805065959</v>
+      </c>
+      <c r="L2264" t="n">
+        <v>38.15424268452435</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="2" t="n">
+        <v>45280.375</v>
+      </c>
+      <c r="B2265" t="n">
+        <v>788</v>
+      </c>
+      <c r="C2265" t="n">
+        <v>825</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>775</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>801</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>86940731.31484419</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>69718004758.69135</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>819</v>
+      </c>
+      <c r="J2265" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="K2265" t="n">
+        <v>505.0298941218355</v>
+      </c>
+      <c r="L2265" t="n">
+        <v>39.51349009805129</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="2" t="n">
+        <v>45281.375</v>
+      </c>
+      <c r="B2266" t="n">
+        <v>801</v>
+      </c>
+      <c r="C2266" t="n">
+        <v>869</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>792</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>862</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>99340215.4534876</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>81964249626.14464</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>826</v>
+      </c>
+      <c r="J2266" t="n">
+        <v>1.043583535108959</v>
+      </c>
+      <c r="K2266" t="n">
+        <v>527.0408822433683</v>
+      </c>
+      <c r="L2266" t="n">
+        <v>36.87727417012132</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="2" t="n">
+        <v>45282.375</v>
+      </c>
+      <c r="B2267" t="n">
+        <v>861</v>
+      </c>
+      <c r="C2267" t="n">
+        <v>885</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>823</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>844</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>112738618.7189814</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>96266843154.37463</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>899.5</v>
+      </c>
+      <c r="J2267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2267" t="n">
+        <v>527.0408822433683</v>
+      </c>
+      <c r="L2267" t="n">
+        <v>36.87727417012132</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="2" t="n">
+        <v>45283.375</v>
+      </c>
+      <c r="B2268" t="n">
+        <v>844</v>
+      </c>
+      <c r="C2268" t="n">
+        <v>845</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>813</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>829</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>44152902.50025552</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>36406678985.65253</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>875</v>
+      </c>
+      <c r="J2268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2268" t="n">
+        <v>527.0408822433683</v>
+      </c>
+      <c r="L2268" t="n">
+        <v>36.87727417012132</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="2" t="n">
+        <v>45284.375</v>
+      </c>
+      <c r="B2269" t="n">
+        <v>829</v>
+      </c>
+      <c r="C2269" t="n">
+        <v>852</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>798</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>799</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>76257301.46333322</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>63325895574.0458</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>845</v>
+      </c>
+      <c r="J2269" t="n">
+        <v>0.9455621301775148</v>
+      </c>
+      <c r="K2269" t="n">
+        <v>498.3498993046761</v>
+      </c>
+      <c r="L2269" t="n">
+        <v>40.31354090168868</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="2" t="n">
+        <v>45285.375</v>
+      </c>
+      <c r="B2270" t="n">
+        <v>799</v>
+      </c>
+      <c r="C2270" t="n">
+        <v>845</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>792</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>831</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>62602832.93133961</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>51053130667.26841</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I2270" t="n">
+        <v>826</v>
+      </c>
+      <c r="J2270" t="n">
+        <v>1.006053268765133</v>
+      </c>
+      <c r="K2270" t="n">
+        <v>501.3665451842443</v>
+      </c>
+      <c r="L2270" t="n">
+        <v>39.95224272312748</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="2" t="n">
+        <v>45286.375</v>
+      </c>
+      <c r="B2271" t="n">
+        <v>831</v>
+      </c>
+      <c r="C2271" t="n">
+        <v>836</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>777</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>815</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>70696221.21096328</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>57432676349.51807</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>857.5</v>
+      </c>
+      <c r="J2271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2271" t="n">
+        <v>501.3665451842443</v>
+      </c>
+      <c r="L2271" t="n">
+        <v>39.95224272312748</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="2" t="n">
+        <v>45287.375</v>
+      </c>
+      <c r="B2272" t="n">
+        <v>816</v>
+      </c>
+      <c r="C2272" t="n">
+        <v>857</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>783</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>843</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>73682595.54528433</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>60546789136.88503</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2272" t="n">
+        <v>845.5</v>
+      </c>
+      <c r="J2272" t="n">
+        <v>0.997043169722058</v>
+      </c>
+      <c r="K2272" t="n">
+        <v>499.8840894030963</v>
+      </c>
+      <c r="L2272" t="n">
+        <v>40.12979374996625</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="2" t="n">
+        <v>45288.375</v>
+      </c>
+      <c r="B2273" t="n">
+        <v>843</v>
+      </c>
+      <c r="C2273" t="n">
+        <v>898</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>819</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>823</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>143998505.8352222</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>123641055644.8918</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>880</v>
+      </c>
+      <c r="J2273" t="n">
+        <v>0.9352272727272727</v>
+      </c>
+      <c r="K2273" t="n">
+        <v>467.5052336122139</v>
+      </c>
+      <c r="L2273" t="n">
+        <v>44.00775029116162</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="2" t="n">
+        <v>45289.375</v>
+      </c>
+      <c r="B2274" t="n">
+        <v>823</v>
+      </c>
+      <c r="C2274" t="n">
+        <v>831</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>797</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>816</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>76632770.04072282</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>62492195353.47869</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2274" t="n">
+        <v>862.5</v>
+      </c>
+      <c r="J2274" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2274" t="n">
+        <v>467.5052336122139</v>
+      </c>
+      <c r="L2274" t="n">
+        <v>44.00775029116162</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="2" t="n">
+        <v>45290.375</v>
+      </c>
+      <c r="B2275" t="n">
+        <v>816</v>
+      </c>
+      <c r="C2275" t="n">
+        <v>822</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>801</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>808</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>34189537.1147069</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>27760976924.56739</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I2275" t="n">
+        <v>833</v>
+      </c>
+      <c r="J2275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2275" t="n">
+        <v>467.5052336122139</v>
+      </c>
+      <c r="L2275" t="n">
+        <v>44.00775029116162</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="2" t="n">
+        <v>45291.375</v>
+      </c>
+      <c r="B2276" t="n">
+        <v>808</v>
+      </c>
+      <c r="C2276" t="n">
+        <v>817</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>799</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>805</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>28742479.04137731</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>23225943527.63916</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2276" t="n">
+        <v>818.5</v>
+      </c>
+      <c r="J2276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2276" t="n">
+        <v>467.5052336122139</v>
+      </c>
+      <c r="L2276" t="n">
+        <v>44.00775029116162</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="2" t="n">
+        <v>45292.375</v>
+      </c>
+      <c r="B2277" t="n">
+        <v>805</v>
+      </c>
+      <c r="C2277" t="n">
+        <v>832</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>801</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>829</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>28837387.24048027</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>23425769955.13964</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I2277" t="n">
+        <v>814</v>
+      </c>
+      <c r="J2277" t="n">
+        <v>1.018427518427518</v>
+      </c>
+      <c r="K2277" t="n">
+        <v>476.1201949195643</v>
+      </c>
+      <c r="L2277" t="n">
+        <v>42.97595207785378</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="2" t="n">
+        <v>45293.375</v>
+      </c>
+      <c r="B2278" t="n">
+        <v>829</v>
+      </c>
+      <c r="C2278" t="n">
+        <v>846</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>810</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>812</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>47184287.62413906</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>39187682118.78998</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2278" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="J2278" t="n">
+        <v>0.9615156897572528</v>
+      </c>
+      <c r="K2278" t="n">
+        <v>457.7970376254425</v>
+      </c>
+      <c r="L2278" t="n">
+        <v>45.17048322938695</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="2" t="n">
+        <v>45294.375</v>
+      </c>
+      <c r="B2279" t="n">
+        <v>813</v>
+      </c>
+      <c r="C2279" t="n">
+        <v>824</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>640</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>763</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>108260498.7144853</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>82431123626.88199</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>92</v>
+      </c>
+      <c r="I2279" t="n">
+        <v>831</v>
+      </c>
+      <c r="J2279" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2279" t="n">
+        <v>457.7970376254425</v>
+      </c>
+      <c r="L2279" t="n">
+        <v>45.17048322938695</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="2" t="n">
+        <v>45295.375</v>
+      </c>
+      <c r="B2280" t="n">
+        <v>762</v>
+      </c>
+      <c r="C2280" t="n">
+        <v>776</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>737</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>768</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>39146460.38864826</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>29705830886.92674</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I2280" t="n">
+        <v>854</v>
+      </c>
+      <c r="J2280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2280" t="n">
+        <v>457.7970376254425</v>
+      </c>
+      <c r="L2280" t="n">
+        <v>45.17048322938695</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="2" t="n">
+        <v>45296.375</v>
+      </c>
+      <c r="B2281" t="n">
+        <v>768</v>
+      </c>
+      <c r="C2281" t="n">
+        <v>770</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>708</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>728</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>36584881.64027572</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>26859050328.32196</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2281" t="n">
+        <v>787.5</v>
+      </c>
+      <c r="J2281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2281" t="n">
+        <v>457.7970376254425</v>
+      </c>
+      <c r="L2281" t="n">
+        <v>45.17048322938695</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="2" t="n">
+        <v>45297.375</v>
+      </c>
+      <c r="B2282" t="n">
+        <v>730</v>
+      </c>
+      <c r="C2282" t="n">
+        <v>731</v>
+      </c>
+      <c r="D2282" t="n">
+        <v>685</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>706</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>34763307.66359921</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>24543867757.4869</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>761</v>
+      </c>
+      <c r="J2282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2282" t="n">
+        <v>457.7970376254425</v>
+      </c>
+      <c r="L2282" t="n">
+        <v>45.17048322938695</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="2" t="n">
+        <v>45298.375</v>
+      </c>
+      <c r="B2283" t="n">
+        <v>706</v>
+      </c>
+      <c r="C2283" t="n">
+        <v>719</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>655</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>666</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>34963536.18455222</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>24203171587.64658</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>729</v>
+      </c>
+      <c r="J2283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2283" t="n">
+        <v>457.7970376254425</v>
+      </c>
+      <c r="L2283" t="n">
+        <v>45.17048322938695</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="2" t="n">
+        <v>45299.375</v>
+      </c>
+      <c r="B2284" t="n">
+        <v>667</v>
+      </c>
+      <c r="C2284" t="n">
+        <v>730</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>623</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>726</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>93346409.18517929</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>62778073224.66432</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>699</v>
+      </c>
+      <c r="J2284" t="n">
+        <v>1.03862660944206</v>
+      </c>
+      <c r="K2284" t="n">
+        <v>475.4801850015325</v>
+      </c>
+      <c r="L2284" t="n">
+        <v>43.05260489919161</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="2" t="n">
+        <v>45300.375</v>
+      </c>
+      <c r="B2285" t="n">
+        <v>726</v>
+      </c>
+      <c r="C2285" t="n">
+        <v>731</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>668</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>689</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>62583777.14395948</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>43568169730.22285</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>779.5</v>
+      </c>
+      <c r="J2285" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2285" t="n">
+        <v>475.4801850015325</v>
+      </c>
+      <c r="L2285" t="n">
+        <v>43.05260489919161</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="2" t="n">
+        <v>45301.375</v>
+      </c>
+      <c r="B2286" t="n">
+        <v>689</v>
+      </c>
+      <c r="C2286" t="n">
+        <v>807</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>655</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>772</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>91619645.18200493</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>66628092982.21276</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>76</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>720.5</v>
+      </c>
+      <c r="J2286" t="n">
+        <v>1.07147814018043</v>
+      </c>
+      <c r="K2286" t="n">
+        <v>509.466624318089</v>
+      </c>
+      <c r="L2286" t="n">
+        <v>38.98211100926567</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="2" t="n">
+        <v>45302.375</v>
+      </c>
+      <c r="B2287" t="n">
+        <v>772</v>
+      </c>
+      <c r="C2287" t="n">
+        <v>842</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>762</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>799</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>113201403.1675062</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>90456307870.30254</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2287" t="n">
+        <v>848</v>
+      </c>
+      <c r="J2287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2287" t="n">
+        <v>509.466624318089</v>
+      </c>
+      <c r="L2287" t="n">
+        <v>38.98211100926567</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="2" t="n">
+        <v>45303.375</v>
+      </c>
+      <c r="B2288" t="n">
+        <v>798</v>
+      </c>
+      <c r="C2288" t="n">
+        <v>807</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>733</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>760</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>67218999.21141498</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>52525187443.0794</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>37</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>838</v>
+      </c>
+      <c r="J2288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2288" t="n">
+        <v>509.466624318089</v>
+      </c>
+      <c r="L2288" t="n">
+        <v>38.98211100926567</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="2" t="n">
+        <v>45304.375</v>
+      </c>
+      <c r="B2289" t="n">
+        <v>760</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>766</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>727</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>756</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>30334066.13072578</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>22790730247.08979</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>797</v>
+      </c>
+      <c r="J2289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2289" t="n">
+        <v>509.466624318089</v>
+      </c>
+      <c r="L2289" t="n">
+        <v>38.98211100926567</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="2" t="n">
+        <v>45305.375</v>
+      </c>
+      <c r="B2290" t="n">
+        <v>756</v>
+      </c>
+      <c r="C2290" t="n">
+        <v>757</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>720</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>722</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>23353828.77677847</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>17335626538.42157</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>775.5</v>
+      </c>
+      <c r="J2290" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2290" t="n">
+        <v>509.466624318089</v>
+      </c>
+      <c r="L2290" t="n">
+        <v>38.98211100926567</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="2" t="n">
+        <v>45306.375</v>
+      </c>
+      <c r="B2291" t="n">
+        <v>723</v>
+      </c>
+      <c r="C2291" t="n">
+        <v>742</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>718</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>724</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>22462942.76259991</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>16429527730.09373</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>741.5</v>
+      </c>
+      <c r="J2291" t="n">
+        <v>0.9763991908293999</v>
+      </c>
+      <c r="K2291" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2291" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="2" t="n">
+        <v>45307.375</v>
+      </c>
+      <c r="B2292" t="n">
+        <v>724</v>
+      </c>
+      <c r="C2292" t="n">
+        <v>751</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>724</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>736</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>19981650.56844597</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>14708957380.96439</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>736</v>
+      </c>
+      <c r="J2292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2292" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2292" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="2" t="n">
+        <v>45308.375</v>
+      </c>
+      <c r="B2293" t="n">
+        <v>735</v>
+      </c>
+      <c r="C2293" t="n">
+        <v>740</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>719</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>727</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>18746526.82556933</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>13671597028.20417</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>748.5</v>
+      </c>
+      <c r="J2293" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2293" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2293" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="2" t="n">
+        <v>45309.375</v>
+      </c>
+      <c r="B2294" t="n">
+        <v>727</v>
+      </c>
+      <c r="C2294" t="n">
+        <v>727</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>692</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>697</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>27759784.87544587</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>19678612046.85535</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>737.5</v>
+      </c>
+      <c r="J2294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2294" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2294" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="2" t="n">
+        <v>45310.375</v>
+      </c>
+      <c r="B2295" t="n">
+        <v>696</v>
+      </c>
+      <c r="C2295" t="n">
+        <v>700</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>656</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>699</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>32352586.23512076</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>22017095603.13287</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="J2295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2295" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2295" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="2" t="n">
+        <v>45311.375</v>
+      </c>
+      <c r="B2296" t="n">
+        <v>698</v>
+      </c>
+      <c r="C2296" t="n">
+        <v>716</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>687</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>711</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>20608568.7251259</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>14553337265.5222</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>720</v>
+      </c>
+      <c r="J2296" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2296" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2296" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="2" t="n">
+        <v>45312.375</v>
+      </c>
+      <c r="B2297" t="n">
+        <v>710</v>
+      </c>
+      <c r="C2297" t="n">
+        <v>720</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>693</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>695</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>14014353.77701191</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>9953824781.950764</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>724.5</v>
+      </c>
+      <c r="J2297" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2297" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2297" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="2" t="n">
+        <v>45313.375</v>
+      </c>
+      <c r="B2298" t="n">
+        <v>694</v>
+      </c>
+      <c r="C2298" t="n">
+        <v>699</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>661</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>662</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>29468291.91482482</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>20015642994.50973</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2298" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="J2298" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2298" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2298" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="2" t="n">
+        <v>45314.375</v>
+      </c>
+      <c r="B2299" t="n">
+        <v>662</v>
+      </c>
+      <c r="C2299" t="n">
+        <v>673</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>621</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>663</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>47265246.74794678</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>30460768875.62308</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>681</v>
+      </c>
+      <c r="J2299" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2299" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2299" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="2" t="n">
+        <v>45315.375</v>
+      </c>
+      <c r="B2300" t="n">
+        <v>663</v>
+      </c>
+      <c r="C2300" t="n">
+        <v>665</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>639</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>656</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>26042788.85613078</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>16958231999.05576</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2300" t="n">
+        <v>689</v>
+      </c>
+      <c r="J2300" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2300" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2300" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="2" t="n">
+        <v>45316.375</v>
+      </c>
+      <c r="B2301" t="n">
+        <v>657</v>
+      </c>
+      <c r="C2301" t="n">
+        <v>667</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>635</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>644</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>23649920.46960522</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>15390569210.00962</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>670</v>
+      </c>
+      <c r="J2301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2301" t="n">
+        <v>497.4427997387679</v>
+      </c>
+      <c r="L2301" t="n">
+        <v>40.42218256332886</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="2" t="n">
+        <v>45317.375</v>
+      </c>
+      <c r="B2302" t="n">
+        <v>644</v>
+      </c>
+      <c r="C2302" t="n">
+        <v>675</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>639</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>668</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>24530819.46236596</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>16210309439.24289</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>660</v>
+      </c>
+      <c r="J2302" t="n">
+        <v>1.012121212121212</v>
+      </c>
+      <c r="K2302" t="n">
+        <v>503.4724094325712</v>
+      </c>
+      <c r="L2302" t="n">
+        <v>39.70002720046011</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="2" t="n">
+        <v>45318.375</v>
+      </c>
+      <c r="B2303" t="n">
+        <v>668</v>
+      </c>
+      <c r="C2303" t="n">
+        <v>675</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>655</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>670</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>15461517.52289234</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>10315830516.72346</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>686</v>
+      </c>
+      <c r="J2303" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2303" t="n">
+        <v>503.4724094325712</v>
+      </c>
+      <c r="L2303" t="n">
+        <v>39.70002720046011</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="2" t="n">
+        <v>45319.375</v>
+      </c>
+      <c r="B2304" t="n">
+        <v>671</v>
+      </c>
+      <c r="C2304" t="n">
+        <v>688</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>667</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>674</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>18329438.3074417</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>12445701513.76315</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>681</v>
+      </c>
+      <c r="J2304" t="n">
+        <v>0.9897209985315712</v>
+      </c>
+      <c r="K2304" t="n">
+        <v>498.2972157967005</v>
+      </c>
+      <c r="L2304" t="n">
+        <v>40.31985070941279</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="2" t="n">
+        <v>45320.375</v>
+      </c>
+      <c r="B2305" t="n">
+        <v>674</v>
+      </c>
+      <c r="C2305" t="n">
+        <v>720</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>666.5</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>718</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>22437824.45885482</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>15526178069.01341</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>684.5</v>
+      </c>
+      <c r="J2305" t="n">
+        <v>1.048940832724617</v>
+      </c>
+      <c r="K2305" t="n">
+        <v>522.684296482149</v>
+      </c>
+      <c r="L2305" t="n">
+        <v>37.39905450600202</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="2" t="n">
+        <v>45321.375</v>
+      </c>
+      <c r="B2306" t="n">
+        <v>718</v>
+      </c>
+      <c r="C2306" t="n">
+        <v>731.7</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>703.1</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>705.2</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>29238539.93520484</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>20999395538.32676</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>14.30000000000001</v>
+      </c>
+      <c r="I2306" t="n">
+        <v>744.75</v>
+      </c>
+      <c r="J2306" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2306" t="n">
+        <v>522.684296482149</v>
+      </c>
+      <c r="L2306" t="n">
+        <v>37.39905450600202</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="2" t="n">
+        <v>45322.375</v>
+      </c>
+      <c r="B2307" t="n">
+        <v>705.2</v>
+      </c>
+      <c r="C2307" t="n">
+        <v>712</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>682</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>687.8</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>22941269.49442329</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>15950939080.50728</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2307" t="n">
+        <v>719.5</v>
+      </c>
+      <c r="J2307" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2307" t="n">
+        <v>522.684296482149</v>
+      </c>
+      <c r="L2307" t="n">
+        <v>37.39905450600202</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="2" t="n">
+        <v>45323.375</v>
+      </c>
+      <c r="B2308" t="n">
+        <v>687.8</v>
+      </c>
+      <c r="C2308" t="n">
+        <v>698.2</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>671</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>697.7</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>16590131.62853659</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>11283084127.38044</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>13.60000000000002</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>702.8</v>
+      </c>
+      <c r="J2308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2308" t="n">
+        <v>522.684296482149</v>
+      </c>
+      <c r="L2308" t="n">
+        <v>37.39905450600202</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="2" t="n">
+        <v>45324.375</v>
+      </c>
+      <c r="B2309" t="n">
+        <v>696.8</v>
+      </c>
+      <c r="C2309" t="n">
+        <v>719.9</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>691.2</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>706.8</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>23992667.9678072</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>16904351370.89351</v>
+      </c>
+      <c r="H2309" t="n">
+        <v>14.34999999999997</v>
+      </c>
+      <c r="I2309" t="n">
+        <v>710.4</v>
+      </c>
+      <c r="J2309" t="n">
+        <v>0.9949324324324323</v>
+      </c>
+      <c r="K2309" t="n">
+        <v>520.0355584932191</v>
+      </c>
+      <c r="L2309" t="n">
+        <v>37.71628902708647</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="2" t="n">
+        <v>45325.375</v>
+      </c>
+      <c r="B2310" t="n">
+        <v>706.7</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>723.5</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>705</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>706.5</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>21052275.23308994</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>15052921262.8111</v>
+      </c>
+      <c r="H2310" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="I2310" t="n">
+        <v>721.05</v>
+      </c>
+      <c r="J2310" t="n">
+        <v>0.9798210942375702</v>
+      </c>
+      <c r="K2310" t="n">
+        <v>509.5418099652719</v>
+      </c>
+      <c r="L2310" t="n">
+        <v>38.97310616134331</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="2" t="n">
+        <v>45326.375</v>
+      </c>
+      <c r="B2311" t="n">
+        <v>706.5</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>707</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>680.9</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>682.1</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>16723820.93067422</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>11647065932.9988</v>
+      </c>
+      <c r="H2311" t="n">
+        <v>13.05000000000001</v>
+      </c>
+      <c r="I2311" t="n">
+        <v>715.75</v>
+      </c>
+      <c r="J2311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2311" t="n">
+        <v>509.5418099652719</v>
+      </c>
+      <c r="L2311" t="n">
+        <v>38.97310616134331</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="2" t="n">
+        <v>45327.375</v>
+      </c>
+      <c r="B2312" t="n">
+        <v>682.1</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>694.5</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>673</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>682</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>19918141.4796852</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>13630845238.68601</v>
+      </c>
+      <c r="H2312" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="I2312" t="n">
+        <v>695.1500000000001</v>
+      </c>
+      <c r="J2312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2312" t="n">
+        <v>509.5418099652719</v>
+      </c>
+      <c r="L2312" t="n">
+        <v>38.97310616134331</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="2" t="n">
+        <v>45328.375</v>
+      </c>
+      <c r="B2313" t="n">
+        <v>682</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>688.9</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>673</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>683.2</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>14204536.0155536</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>9659930205.714157</v>
+      </c>
+      <c r="H2313" t="n">
+        <v>7.949999999999989</v>
+      </c>
+      <c r="I2313" t="n">
+        <v>692.75</v>
+      </c>
+      <c r="J2313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2313" t="n">
+        <v>509.5418099652719</v>
+      </c>
+      <c r="L2313" t="n">
+        <v>38.97310616134331</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="2" t="n">
+        <v>45329.375</v>
+      </c>
+      <c r="B2314" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>687.3</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>652</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>681.8</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>37587188.22571834</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>25093890585.95845</v>
+      </c>
+      <c r="H2314" t="n">
+        <v>17.64999999999998</v>
+      </c>
+      <c r="I2314" t="n">
+        <v>690.45</v>
+      </c>
+      <c r="J2314" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2314" t="n">
+        <v>509.5418099652719</v>
+      </c>
+      <c r="L2314" t="n">
+        <v>38.97310616134331</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="2" t="n">
+        <v>45330.375</v>
+      </c>
+      <c r="B2315" t="n">
+        <v>681.7</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>733.6</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>681.7</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>726.7</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>85346090.59934168</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>61033152639.634</v>
+      </c>
+      <c r="H2315" t="n">
+        <v>25.94999999999999</v>
+      </c>
+      <c r="I2315" t="n">
+        <v>699.35</v>
+      </c>
+      <c r="J2315" t="n">
+        <v>1.039107742904125</v>
+      </c>
+      <c r="K2315" t="n">
+        <v>529.4688400682965</v>
+      </c>
+      <c r="L2315" t="n">
+        <v>36.58648208686377</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="2" t="n">
+        <v>45331.375</v>
+      </c>
+      <c r="B2316" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>744.2</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>719.3</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>729.7</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>44532627.36840869</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>32591221082.02854</v>
+      </c>
+      <c r="H2316" t="n">
+        <v>12.45000000000005</v>
+      </c>
+      <c r="I2316" t="n">
+        <v>751.45</v>
+      </c>
+      <c r="J2316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2316" t="n">
+        <v>529.4688400682965</v>
+      </c>
+      <c r="L2316" t="n">
+        <v>36.58648208686377</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="2" t="n">
+        <v>45332.375</v>
+      </c>
+      <c r="B2317" t="n">
+        <v>729.3</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>751.9</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>711</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>745.7</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>26911234.81848101</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>19711519101.76907</v>
+      </c>
+      <c r="H2317" t="n">
+        <v>20.44999999999999</v>
+      </c>
+      <c r="I2317" t="n">
+        <v>741.75</v>
+      </c>
+      <c r="J2317" t="n">
+        <v>1.005325244354567</v>
+      </c>
+      <c r="K2317" t="n">
+        <v>532.2883910197893</v>
+      </c>
+      <c r="L2317" t="n">
+        <v>36.2487896085936</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="2" t="n">
+        <v>45333.375</v>
+      </c>
+      <c r="B2318" t="n">
+        <v>745.8</v>
+      </c>
+      <c r="C2318" t="n">
+        <v>762.7</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>725.1</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>732.6</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>32412406.52483866</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>24224182620.79313</v>
+      </c>
+      <c r="H2318" t="n">
+        <v>18.80000000000001</v>
+      </c>
+      <c r="I2318" t="n">
+        <v>766.25</v>
+      </c>
+      <c r="J2318" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2318" t="n">
+        <v>532.2883910197893</v>
+      </c>
+      <c r="L2318" t="n">
+        <v>36.2487896085936</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="2" t="n">
+        <v>45334.375</v>
+      </c>
+      <c r="B2319" t="n">
+        <v>732.6</v>
+      </c>
+      <c r="C2319" t="n">
+        <v>758.6</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>721</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>28712873.2118748</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>21208585584.78842</v>
+      </c>
+      <c r="H2319" t="n">
+        <v>18.80000000000001</v>
+      </c>
+      <c r="I2319" t="n">
+        <v>751.4000000000001</v>
+      </c>
+      <c r="J2319" t="n">
+        <v>0.9980037263774286</v>
+      </c>
+      <c r="K2319" t="n">
+        <v>531.2257977451956</v>
+      </c>
+      <c r="L2319" t="n">
+        <v>36.37605446830496</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="2" t="n">
+        <v>45335.375</v>
+      </c>
+      <c r="B2320" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="C2320" t="n">
+        <v>761</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>726</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>739</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>36391632.40696311</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>27098677570.33206</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>768.7</v>
+      </c>
+      <c r="J2320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2320" t="n">
+        <v>531.2257977451956</v>
+      </c>
+      <c r="L2320" t="n">
+        <v>36.37605446830496</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="2" t="n">
+        <v>45336.375</v>
+      </c>
+      <c r="B2321" t="n">
+        <v>739</v>
+      </c>
+      <c r="C2321" t="n">
+        <v>788.2</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>731.4</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>781.7</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>50661271.57118823</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>38944260052.06487</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>28.40000000000003</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>756.5</v>
+      </c>
+      <c r="J2321" t="n">
+        <v>1.03331130204891</v>
+      </c>
+      <c r="K2321" t="n">
+        <v>548.9216207500587</v>
+      </c>
+      <c r="L2321" t="n">
+        <v>34.25665800115531</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="2" t="n">
+        <v>45337.375</v>
+      </c>
+      <c r="B2322" t="n">
+        <v>781.6</v>
+      </c>
+      <c r="C2322" t="n">
+        <v>839</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>777.5</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>835</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>73360408.25930463</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>59394622097.48753</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>810</v>
+      </c>
+      <c r="J2322" t="n">
+        <v>1.030864197530864</v>
+      </c>
+      <c r="K2322" t="n">
+        <v>565.8636460818506</v>
+      </c>
+      <c r="L2322" t="n">
+        <v>32.22754250736381</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="2" t="n">
+        <v>45338.375</v>
+      </c>
+      <c r="B2323" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="C2323" t="n">
+        <v>845</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>810</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>828.3</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>49954671.07968979</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>41388606912.66478</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>866.25</v>
+      </c>
+      <c r="J2323" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2323" t="n">
+        <v>565.8636460818506</v>
+      </c>
+      <c r="L2323" t="n">
+        <v>32.22754250736381</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="2" t="n">
+        <v>45339.375</v>
+      </c>
+      <c r="B2324" t="n">
+        <v>828.4</v>
+      </c>
+      <c r="C2324" t="n">
+        <v>845</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>785.7</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>844.3</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>39363536.30663385</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>32015640301.08763</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>29.64999999999998</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>845.9</v>
+      </c>
+      <c r="J2324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2324" t="n">
+        <v>565.8636460818506</v>
+      </c>
+      <c r="L2324" t="n">
+        <v>32.22754250736381</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="2" t="n">
+        <v>45340.375</v>
+      </c>
+      <c r="B2325" t="n">
+        <v>844.1</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>881.9</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>843.3</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>854.4</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>73533157.01232722</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>63325727090.95211</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>19.30000000000001</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>873.75</v>
+      </c>
+      <c r="J2325" t="n">
+        <v>0.9778540772532188</v>
+      </c>
+      <c r="K2325" t="n">
+        <v>553.33207349051</v>
+      </c>
+      <c r="L2325" t="n">
+        <v>33.72842611535524</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="2" t="n">
+        <v>45341.375</v>
+      </c>
+      <c r="B2326" t="n">
+        <v>854.4</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>881.2</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>854</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>872.8</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>43846922.71035437</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>37959566862.86654</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>13.60000000000002</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>873.7</v>
+      </c>
+      <c r="J2326" t="n">
+        <v>0.998969898134371</v>
+      </c>
+      <c r="K2326" t="n">
+        <v>552.7620850892951</v>
+      </c>
+      <c r="L2326" t="n">
+        <v>33.79669258725198</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="2" t="n">
+        <v>45342.375</v>
+      </c>
+      <c r="B2327" t="n">
+        <v>872.8</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>888.4</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>833.3</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>858.7</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>57175712.19491641</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>49471627875.98399</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>27.55000000000001</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>886.4</v>
+      </c>
+      <c r="J2327" t="n">
+        <v>0.9687500000000001</v>
+      </c>
+      <c r="K2327" t="n">
+        <v>535.4882699302547</v>
+      </c>
+      <c r="L2327" t="n">
+        <v>35.86554594390034</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="2" t="n">
+        <v>45343.375</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>858.6</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>864.1</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>810.5</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>835.6</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>37998235.20257104</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>31568657749.9626</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>26.80000000000001</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>886.1500000000001</v>
+      </c>
+      <c r="J2328" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2328" t="n">
+        <v>535.4882699302547</v>
+      </c>
+      <c r="L2328" t="n">
+        <v>35.86554594390034</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="2" t="n">
+        <v>45344.375</v>
+      </c>
+      <c r="B2329" t="n">
+        <v>836.6</v>
+      </c>
+      <c r="C2329" t="n">
+        <v>842</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>812.2</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>818.2</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>25384311.94628455</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>21014436297.99871</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>14.89999999999998</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>863.4000000000001</v>
+      </c>
+      <c r="J2329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2329" t="n">
+        <v>535.4882699302547</v>
+      </c>
+      <c r="L2329" t="n">
+        <v>35.86554594390034</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="2" t="n">
+        <v>45345.375</v>
+      </c>
+      <c r="B2330" t="n">
+        <v>818.2</v>
+      </c>
+      <c r="C2330" t="n">
+        <v>830.1</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>800.5</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>811.8</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>21448170.75990124</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>17498866920.10564</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>14.80000000000001</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>833.1</v>
+      </c>
+      <c r="J2330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2330" t="n">
+        <v>535.4882699302547</v>
+      </c>
+      <c r="L2330" t="n">
+        <v>35.86554594390034</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="2" t="n">
+        <v>45346.375</v>
+      </c>
+      <c r="B2331" t="n">
+        <v>812.6</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>827.3</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>823.4</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>23664000.44246116</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>19181267815.97179</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>17.09999999999997</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>827.4000000000001</v>
+      </c>
+      <c r="J2331" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2331" t="n">
+        <v>535.4882699302547</v>
+      </c>
+      <c r="L2331" t="n">
+        <v>35.86554594390034</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="2" t="n">
+        <v>45347.375</v>
+      </c>
+      <c r="B2332" t="n">
+        <v>822.6</v>
+      </c>
+      <c r="C2332" t="n">
+        <v>827.8</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>802.6</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>815</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>16339014.75894612</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>13306465237.65233</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>12.59999999999997</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>839.7</v>
+      </c>
+      <c r="J2332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2332" t="n">
+        <v>535.4882699302547</v>
+      </c>
+      <c r="L2332" t="n">
+        <v>35.86554594390034</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="2" t="n">
+        <v>45348.375</v>
+      </c>
+      <c r="B2333" t="n">
+        <v>815</v>
+      </c>
+      <c r="C2333" t="n">
+        <v>851.3</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>788.1</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>849</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>39139538.6571191</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>32136541557.87217</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>31.59999999999997</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>827.5999999999999</v>
+      </c>
+      <c r="J2333" t="n">
+        <v>1.025857902368294</v>
+      </c>
+      <c r="K2333" t="n">
+        <v>549.3348733334777</v>
+      </c>
+      <c r="L2333" t="n">
+        <v>34.2071634924739</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="2" t="n">
+        <v>45349.375</v>
+      </c>
+      <c r="B2334" t="n">
+        <v>849</v>
+      </c>
+      <c r="C2334" t="n">
+        <v>868.8</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>843.4</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>859.2</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>51023509.65729979</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>43738162709.05254</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>12.69999999999999</v>
+      </c>
+      <c r="I2334" t="n">
+        <v>880.5999999999999</v>
+      </c>
+      <c r="J2334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2334" t="n">
+        <v>549.3348733334777</v>
+      </c>
+      <c r="L2334" t="n">
+        <v>34.2071634924739</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="2" t="n">
+        <v>45350.375</v>
+      </c>
+      <c r="B2335" t="n">
+        <v>859.2</v>
+      </c>
+      <c r="C2335" t="n">
+        <v>912.5</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>844.7</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>883.9</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>89478498.87746313</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>78523832897.15808</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>33.89999999999998</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>871.9000000000001</v>
+      </c>
+      <c r="J2335" t="n">
+        <v>1.013763046220897</v>
+      </c>
+      <c r="K2335" t="n">
+        <v>556.895394585917</v>
+      </c>
+      <c r="L2335" t="n">
+        <v>33.3016536426169</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="2" t="n">
+        <v>45351.375</v>
+      </c>
+      <c r="B2336" t="n">
+        <v>883.9</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>989.8</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>871</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>920.2</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>171008348.522402</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>162323624350.8784</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>59.39999999999998</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>917.8</v>
+      </c>
+      <c r="J2336" t="n">
+        <v>1.002614948790586</v>
+      </c>
+      <c r="K2336" t="n">
+        <v>558.3516475244725</v>
+      </c>
+      <c r="L2336" t="n">
+        <v>33.12724088247555</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="2" t="n">
+        <v>45352.375</v>
+      </c>
+      <c r="B2337" t="n">
+        <v>919</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>918.1</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>67917289.6507716</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>65328252001.45258</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>45.44999999999999</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>978.4</v>
+      </c>
+      <c r="J2337" t="n">
+        <v>1.029231398201145</v>
+      </c>
+      <c r="K2337" t="n">
+        <v>574.6730468695255</v>
+      </c>
+      <c r="L2337" t="n">
+        <v>31.17245663190197</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="2" t="n">
+        <v>45353.375</v>
+      </c>
+      <c r="B2338" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>1079</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>94593104.344988</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>98599997195.70404</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>1052.45</v>
+      </c>
+      <c r="J2338" t="n">
+        <v>0.9824694759846073</v>
+      </c>
+      <c r="K2338" t="n">
+        <v>564.5987272203804</v>
+      </c>
+      <c r="L2338" t="n">
+        <v>32.3790395338369</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="2" t="n">
+        <v>45354.375</v>
+      </c>
+      <c r="B2339" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>950</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>58773002.29272396</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>59116463422.24575</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>43</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="J2339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2339" t="n">
+        <v>564.5987272203804</v>
+      </c>
+      <c r="L2339" t="n">
+        <v>32.3790395338369</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="2" t="n">
+        <v>45355.375</v>
+      </c>
+      <c r="B2340" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>1079</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>101418615.852633</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>109415449390.2009</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="I2340" t="n">
+        <v>1060</v>
+      </c>
+      <c r="J2340" t="n">
+        <v>1.017924528301887</v>
+      </c>
+      <c r="K2340" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2340" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="2" t="n">
+        <v>45356.375</v>
+      </c>
+      <c r="B2341" t="n">
+        <v>1077</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>1103</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>907</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>992.2</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>135750482.0450616</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>140877492453.2269</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>98</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>1130.5</v>
+      </c>
+      <c r="J2341" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2341" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2341" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="2" t="n">
+        <v>45357.375</v>
+      </c>
+      <c r="B2342" t="n">
+        <v>992.2</v>
+      </c>
+      <c r="C2342" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D2342" t="n">
+        <v>933</v>
+      </c>
+      <c r="E2342" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>91215193.78930904</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>91384250175.36267</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>1090.2</v>
+      </c>
+      <c r="J2342" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2342" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2342" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="2" t="n">
+        <v>45358.375</v>
+      </c>
+      <c r="B2343" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C2343" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D2343" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E2343" t="n">
+        <v>1046</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>57637242.79558733</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>60015670954.70232</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>1100.5</v>
+      </c>
+      <c r="J2343" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2343" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2343" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="2" t="n">
+        <v>45359.375</v>
+      </c>
+      <c r="B2344" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C2344" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D2344" t="n">
+        <v>995.8</v>
+      </c>
+      <c r="E2344" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>60234665.23043024</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>62062305162.10364</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>33.60000000000002</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>1068.5</v>
+      </c>
+      <c r="J2344" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2344" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2344" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="2" t="n">
+        <v>45360.375</v>
+      </c>
+      <c r="B2345" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C2345" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D2345" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E2345" t="n">
+        <v>1041</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>34640398.7174125</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>35615924247.95735</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>1056.6</v>
+      </c>
+      <c r="J2345" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2345" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2345" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="2" t="n">
+        <v>45361.375</v>
+      </c>
+      <c r="B2346" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C2346" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D2346" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2346" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>45739042.44815178</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>46866613393.24445</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>1058</v>
+      </c>
+      <c r="J2346" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2346" t="n">
+        <v>574.7188930856513</v>
+      </c>
+      <c r="L2346" t="n">
+        <v>31.16696571416039</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="2" t="n">
+        <v>45362.375</v>
+      </c>
+      <c r="B2347" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C2347" t="n">
+        <v>1097</v>
+      </c>
+      <c r="D2347" t="n">
+        <v>970</v>
+      </c>
+      <c r="E2347" t="n">
+        <v>1078</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>113097027.9577586</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>118164736616.5867</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>1039.5</v>
+      </c>
+      <c r="J2347" t="n">
+        <v>1.037037037037037</v>
+      </c>
+      <c r="K2347" t="n">
+        <v>596.0047780147495</v>
+      </c>
+      <c r="L2347" t="n">
+        <v>28.61759407394412</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="2" t="n">
+        <v>45363.375</v>
+      </c>
+      <c r="B2348" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C2348" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D2348" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E2348" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>56517831.26800033</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>59590971408.96832</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>1141.5</v>
+      </c>
+      <c r="J2348" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2348" t="n">
+        <v>596.0047780147495</v>
+      </c>
+      <c r="L2348" t="n">
+        <v>28.61759407394412</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="2" t="n">
+        <v>45364.375</v>
+      </c>
+      <c r="B2349" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C2349" t="n">
+        <v>1097</v>
+      </c>
+      <c r="D2349" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E2349" t="n">
+        <v>1089</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>59517367.50952611</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>63693280443.43006</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>1092.5</v>
+      </c>
+      <c r="J2349" t="n">
+        <v>0.9967963386727688</v>
+      </c>
+      <c r="K2349" t="n">
+        <v>594.0953805565787</v>
+      </c>
+      <c r="L2349" t="n">
+        <v>28.84627912725413</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="2" t="n">
+        <v>45365.375</v>
+      </c>
+      <c r="B2350" t="n">
+        <v>1088</v>
+      </c>
+      <c r="C2350" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D2350" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E2350" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>135322722.1256123</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>148674469250.0972</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>55</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>1121.5</v>
+      </c>
+      <c r="J2350" t="n">
+        <v>0.9629959875167187</v>
+      </c>
+      <c r="K2350" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2350" t="n">
+        <v>31.47925230266114</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="2" t="n">
+        <v>45366.375</v>
+      </c>
+      <c r="B2351" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C2351" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D2351" t="n">
+        <v>982</v>
+      </c>
+      <c r="E2351" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>108407610.500447</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>112746941870.3428</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>65</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>1136</v>
+      </c>
+      <c r="J2351" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2351" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2351" t="n">
+        <v>31.47925230266114</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="2" t="n">
+        <v>45367.375</v>
+      </c>
+      <c r="B2352" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C2352" t="n">
+        <v>1068</v>
+      </c>
+      <c r="D2352" t="n">
+        <v>955.6</v>
+      </c>
+      <c r="E2352" t="n">
+        <v>975.1</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>60362726.23694349</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>61536291650.59199</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>56.19999999999999</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>1123</v>
+      </c>
+      <c r="J2352" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2352" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2352" t="n">
+        <v>31.47925230266114</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="2" t="n">
+        <v>45368.375</v>
+      </c>
+      <c r="B2353" t="n">
+        <v>975.1</v>
+      </c>
+      <c r="C2353" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D2353" t="n">
+        <v>919.7</v>
+      </c>
+      <c r="E2353" t="n">
+        <v>996.2</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>63825399.94206432</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>61866898593.85983</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>41.64999999999998</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>1031.3</v>
+      </c>
+      <c r="J2353" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2353" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2353" t="n">
+        <v>31.47925230266114</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="2" t="n">
+        <v>45369.375</v>
+      </c>
+      <c r="B2354" t="n">
+        <v>995.7</v>
+      </c>
+      <c r="C2354" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D2354" t="n">
+        <v>951.8</v>
+      </c>
+      <c r="E2354" t="n">
+        <v>967.9</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>50955635.64715112</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>50046294447.57021</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>31.60000000000002</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>1037.35</v>
+      </c>
+      <c r="J2354" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2354" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2354" t="n">
+        <v>31.47925230266114</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="2" t="n">
+        <v>45370.375</v>
+      </c>
+      <c r="B2355" t="n">
+        <v>968</v>
+      </c>
+      <c r="C2355" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="D2355" t="n">
+        <v>866.7</v>
+      </c>
+      <c r="E2355" t="n">
+        <v>875.9</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>83310801.73486896</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>75913168423.25096</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>999.6</v>
+      </c>
+      <c r="J2355" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2355" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2355" t="n">
+        <v>31.47925230266114</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="2" t="n">
+        <v>45371.375</v>
+      </c>
+      <c r="B2356" t="n">
+        <v>875.6</v>
+      </c>
+      <c r="C2356" t="n">
+        <v>899.8</v>
+      </c>
+      <c r="D2356" t="n">
+        <v>845</v>
+      </c>
+      <c r="E2356" t="n">
+        <v>883.7</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>32116006.70780635</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>28103829985.79757</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>27.39999999999998</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>929.85</v>
+      </c>
+      <c r="J2356" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2356" t="n">
+        <v>572.1114676782032</v>
+      </c>
+      <c r="L2356" t="n">
+        <v>31.47925230266114</v>
       </c>
     </row>
   </sheetData>
